--- a/ProjectManagment.xlsx
+++ b/ProjectManagment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\AEC\AECProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE99AE04-DCF5-4620-8A88-6409EE4AF297}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397F11C6-9A32-45B5-B758-0F5CCD92D68A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown" sheetId="1" r:id="rId1"/>
@@ -483,13 +483,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -642,19 +642,19 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>14.923076923076923</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>9.8461538461538467</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>4.7692307692307692</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1207,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,12 +1217,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1254,19 +1254,19 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
     </row>
     <row r="6" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1504,8 +1504,12 @@
         <v>30</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>6</v>
+      </c>
       <c r="F12" s="7">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -1523,12 +1527,12 @@
         <v>100</v>
       </c>
       <c r="J12" s="7">
-        <f t="shared" si="5"/>
-        <v>11</v>
+        <f>MAX(IF(OR(ISBLANK(D12),ISBLANK(E12)),F12-K11*B12,F12-D12),0)</f>
+        <v>17</v>
       </c>
       <c r="K12" s="9">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.18867924528301888</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1545,10 +1549,12 @@
       <c r="D13" s="6">
         <v>2</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="6">
+        <v>24</v>
+      </c>
       <c r="F13" s="7">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="4"/>
@@ -1560,15 +1566,15 @@
       </c>
       <c r="I13" s="7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="J13" s="7">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="K13" s="9">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.16923076923076924</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1580,13 +1586,13 @@
         <v>30</v>
       </c>
       <c r="C14" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="7">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="4"/>
@@ -1598,15 +1604,15 @@
       </c>
       <c r="I14" s="7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="J14" s="7">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>14.923076923076923</v>
       </c>
       <c r="K14" s="9">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.16923076923076924</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1622,7 +1628,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="7">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>14.923076923076923</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="4"/>
@@ -1634,15 +1640,15 @@
       </c>
       <c r="I15" s="7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="J15" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.8461538461538467</v>
       </c>
       <c r="K15" s="9">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.16923076923076924</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1658,7 +1664,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9.8461538461538467</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="4"/>
@@ -1670,15 +1676,15 @@
       </c>
       <c r="I16" s="7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="J16" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.7692307692307692</v>
       </c>
       <c r="K16" s="9">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.16923076923076924</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1694,7 +1700,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.7692307692307692</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="4"/>
@@ -1706,7 +1712,7 @@
       </c>
       <c r="I17" s="7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="J17" s="7">
         <f t="shared" si="5"/>
@@ -1714,7 +1720,7 @@
       </c>
       <c r="K17" s="9">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.16923076923076924</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1742,7 +1748,7 @@
       </c>
       <c r="I18" s="7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="J18" s="7">
         <f t="shared" si="5"/>
@@ -1750,7 +1756,7 @@
       </c>
       <c r="K18" s="9">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.16923076923076924</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1778,7 +1784,7 @@
       </c>
       <c r="I19" s="7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="J19" s="7">
         <f t="shared" si="5"/>
@@ -1786,7 +1792,7 @@
       </c>
       <c r="K19" s="9">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.16923076923076924</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1814,7 +1820,7 @@
       </c>
       <c r="I20" s="7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="J20" s="7">
         <f t="shared" si="5"/>
@@ -1822,7 +1828,7 @@
       </c>
       <c r="K20" s="9">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.16923076923076924</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1850,7 +1856,7 @@
       </c>
       <c r="I21" s="7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="J21" s="7">
         <f t="shared" si="5"/>
@@ -1858,7 +1864,7 @@
       </c>
       <c r="K21" s="9">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.16923076923076924</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1886,7 +1892,7 @@
       </c>
       <c r="I22" s="7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="J22" s="7">
         <f t="shared" si="5"/>
@@ -1894,7 +1900,7 @@
       </c>
       <c r="K22" s="9">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.16923076923076924</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1922,7 +1928,7 @@
       </c>
       <c r="I23" s="7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="J23" s="7">
         <f t="shared" si="5"/>
@@ -1930,7 +1936,7 @@
       </c>
       <c r="K23" s="9">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.16923076923076924</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1958,7 +1964,7 @@
       </c>
       <c r="I24" s="7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="J24" s="7">
         <f t="shared" si="5"/>
@@ -1966,7 +1972,7 @@
       </c>
       <c r="K24" s="9">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.16923076923076924</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1994,7 +2000,7 @@
       </c>
       <c r="I25" s="7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="J25" s="7">
         <f t="shared" si="5"/>
@@ -2002,7 +2008,7 @@
       </c>
       <c r="K25" s="9">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.16923076923076924</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2041,7 +2047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
@@ -2528,7 +2534,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="29">
+      <c r="A33" s="27">
         <v>43959</v>
       </c>
     </row>
@@ -2613,7 +2619,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="29">
+      <c r="A39" s="27">
         <v>43962</v>
       </c>
     </row>
@@ -2668,8 +2674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ProjectManagment.xlsx
+++ b/ProjectManagment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\AEC\AECProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\4AHIF\SYP\DeepSpaceProject - Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE99AE04-DCF5-4620-8A88-6409EE4AF297}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A084525-AC65-4220-90C0-B26BAE22839E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="2745" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="82">
   <si>
     <t>Initial</t>
   </si>
@@ -256,6 +256,30 @@
   </si>
   <si>
     <t>Story-12</t>
+  </si>
+  <si>
+    <t>Scene3 - Create Canvas on the floor</t>
+  </si>
+  <si>
+    <t>Scene3 - Create different packet prefabs</t>
+  </si>
+  <si>
+    <t>Scene3 - Create 3 slot objects and slot absorbs packets it gets in touch with</t>
+  </si>
+  <si>
+    <t>Scene3 - Packet sticks to Person if the person gets in touch with packet</t>
+  </si>
+  <si>
+    <t>Scene3 - Create Packet Factory</t>
+  </si>
+  <si>
+    <t>Scene3 - Create object, that measures the time of the game</t>
+  </si>
+  <si>
+    <t>Scene3 - Save score to file</t>
+  </si>
+  <si>
+    <t>13 SP sind aufgeteilt worden</t>
   </si>
 </sst>
 </file>
@@ -267,7 +291,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +332,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -405,7 +436,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -483,13 +514,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1217,12 +1254,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1254,19 +1291,19 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
     </row>
     <row r="6" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -2041,7 +2078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
@@ -2528,7 +2565,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="29">
+      <c r="A33" s="27">
         <v>43959</v>
       </c>
     </row>
@@ -2613,7 +2650,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="29">
+      <c r="A39" s="27">
         <v>43962</v>
       </c>
     </row>
@@ -2666,10 +2703,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2871,11 +2908,11 @@
       <c r="A13" s="16">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="17">
-        <v>13</v>
+      <c r="C13" s="31" t="s">
+        <v>81</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -2974,7 +3011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>20</v>
       </c>
@@ -2995,6 +3032,9 @@
       <c r="C22" s="26">
         <v>1</v>
       </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
@@ -3005,6 +3045,86 @@
       </c>
       <c r="C23" s="26">
         <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="26">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
+        <v>24</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="24">
+        <v>25</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="24">
+        <v>26</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="24">
+        <v>27</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A29" s="24">
+        <v>28</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="24">
+        <v>29</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="26">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectManagment.xlsx
+++ b/ProjectManagment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\4AHIF\SYP\DeepSpaceProject - Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\AEC\AECProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A084525-AC65-4220-90C0-B26BAE22839E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30ACB4B-C73B-47ED-ADE2-17548D90195A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="2745" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="87">
   <si>
     <t>Initial</t>
   </si>
@@ -280,6 +280,21 @@
   </si>
   <si>
     <t>13 SP sind aufgeteilt worden</t>
+  </si>
+  <si>
+    <t>15.0.5.2020</t>
+  </si>
+  <si>
+    <t>Story-23</t>
+  </si>
+  <si>
+    <t>Story-11</t>
+  </si>
+  <si>
+    <t>18.0.5.2020</t>
+  </si>
+  <si>
+    <t>Story-24</t>
   </si>
 </sst>
 </file>
@@ -436,7 +451,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -515,17 +530,20 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -682,22 +700,22 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>26.720588235294116</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>19.441176470588232</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>12.16176470588235</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>4.8823529411764675</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -1245,7 +1263,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,12 +1272,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1291,19 +1309,19 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1582,7 +1600,9 @@
       <c r="D13" s="6">
         <v>2</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="6">
+        <v>18</v>
+      </c>
       <c r="F13" s="7">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -1601,11 +1621,11 @@
       </c>
       <c r="J13" s="7">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K13" s="9">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.1864406779661017</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1617,13 +1637,17 @@
         <v>30</v>
       </c>
       <c r="C14" s="6">
-        <v>2</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="D14" s="6">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6">
+        <v>18</v>
+      </c>
       <c r="F14" s="7">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="4"/>
@@ -1631,19 +1655,19 @@
       </c>
       <c r="H14" s="7">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I14" s="7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="J14" s="7">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f>MAX(IF(OR(ISBLANK(D14),ISBLANK(E14)),F14-K13*B14,F14-D14),0)</f>
+        <v>34</v>
       </c>
       <c r="K14" s="9">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.24264705882352941</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1659,27 +1683,27 @@
       <c r="E15" s="6"/>
       <c r="F15" s="7">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H15" s="7">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I15" s="7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="J15" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>26.720588235294116</v>
       </c>
       <c r="K15" s="9">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.24264705882352941</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1695,27 +1719,27 @@
       <c r="E16" s="6"/>
       <c r="F16" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>26.720588235294116</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H16" s="7">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I16" s="7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="J16" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>19.441176470588232</v>
       </c>
       <c r="K16" s="9">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.24264705882352941</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1731,27 +1755,27 @@
       <c r="E17" s="6"/>
       <c r="F17" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>19.441176470588232</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H17" s="7">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I17" s="7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="J17" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>12.16176470588235</v>
       </c>
       <c r="K17" s="9">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.24264705882352941</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1767,27 +1791,27 @@
       <c r="E18" s="6"/>
       <c r="F18" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>12.16176470588235</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H18" s="7">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I18" s="7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="J18" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.8823529411764675</v>
       </c>
       <c r="K18" s="9">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.24264705882352941</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1803,19 +1827,19 @@
       <c r="E19" s="6"/>
       <c r="F19" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.8823529411764675</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I19" s="7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="J19" s="7">
         <f t="shared" si="5"/>
@@ -1823,7 +1847,7 @@
       </c>
       <c r="K19" s="9">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.24264705882352941</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1843,15 +1867,15 @@
       </c>
       <c r="G20" s="7">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="J20" s="7">
         <f t="shared" si="5"/>
@@ -1859,7 +1883,7 @@
       </c>
       <c r="K20" s="9">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.24264705882352941</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1879,15 +1903,15 @@
       </c>
       <c r="G21" s="7">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I21" s="7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="J21" s="7">
         <f t="shared" si="5"/>
@@ -1895,7 +1919,7 @@
       </c>
       <c r="K21" s="9">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.24264705882352941</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1915,15 +1939,15 @@
       </c>
       <c r="G22" s="7">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I22" s="7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="J22" s="7">
         <f t="shared" si="5"/>
@@ -1931,7 +1955,7 @@
       </c>
       <c r="K22" s="9">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.24264705882352941</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1951,15 +1975,15 @@
       </c>
       <c r="G23" s="7">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I23" s="7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="J23" s="7">
         <f t="shared" si="5"/>
@@ -1967,7 +1991,7 @@
       </c>
       <c r="K23" s="9">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.24264705882352941</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1987,15 +2011,15 @@
       </c>
       <c r="G24" s="7">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="J24" s="7">
         <f t="shared" si="5"/>
@@ -2003,7 +2027,7 @@
       </c>
       <c r="K24" s="9">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.24264705882352941</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2023,15 +2047,15 @@
       </c>
       <c r="G25" s="7">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I25" s="7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="J25" s="7">
         <f t="shared" si="5"/>
@@ -2039,7 +2063,7 @@
       </c>
       <c r="K25" s="9">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.24264705882352941</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2076,10 +2100,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2664,6 +2688,12 @@
       <c r="C40">
         <v>1</v>
       </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
       <c r="F40" t="s">
         <v>28</v>
       </c>
@@ -2678,6 +2708,12 @@
       <c r="C41">
         <v>1</v>
       </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
       <c r="F41" t="s">
         <v>26</v>
       </c>
@@ -2692,7 +2728,143 @@
       <c r="C42">
         <v>6</v>
       </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
       <c r="F42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+      <c r="D52">
+        <v>7</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2703,10 +2875,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2717,7 +2889,7 @@
     <col min="6" max="6" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>38</v>
       </c>
@@ -2730,7 +2902,7 @@
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
     </row>
-    <row r="2" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -2745,7 +2917,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -2759,8 +2931,11 @@
       <c r="E3" s="15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -2775,7 +2950,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -2790,7 +2965,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -2808,7 +2983,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -2819,12 +2994,14 @@
         <v>2</v>
       </c>
       <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="E7" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="F7" s="19" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -2839,7 +3016,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -2854,7 +3031,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -2872,7 +3049,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -2888,7 +3065,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>11</v>
       </c>
@@ -2904,20 +3081,20 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>12</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="29" t="s">
         <v>81</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>13</v>
       </c>
@@ -2930,7 +3107,7 @@
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:6" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>14</v>
       </c>
@@ -2943,7 +3120,7 @@
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21">
         <v>15</v>
       </c>
@@ -2982,6 +3159,9 @@
       <c r="C18" s="26">
         <v>2</v>
       </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
       <c r="F18" s="19" t="s">
         <v>63</v>
       </c>
@@ -2996,6 +3176,9 @@
       <c r="C19" s="26">
         <v>1</v>
       </c>
+      <c r="E19" s="32" t="s">
+        <v>42</v>
+      </c>
       <c r="F19" s="19" t="s">
         <v>65</v>
       </c>
@@ -3010,6 +3193,9 @@
       <c r="C20" s="26">
         <v>1</v>
       </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
@@ -3021,6 +3207,9 @@
       <c r="C21" s="26">
         <v>2</v>
       </c>
+      <c r="E21" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
@@ -3045,6 +3234,9 @@
       </c>
       <c r="C23" s="26">
         <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">

--- a/ProjectManagment.xlsx
+++ b/ProjectManagment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\AEC\AECProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\4AHIF\SYP\DeepSpaceProject - Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30ACB4B-C73B-47ED-ADE2-17548D90195A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2559CC24-DB8B-4A60-BC5C-E9F25B96DB25}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="89">
   <si>
     <t>Initial</t>
   </si>
@@ -295,6 +295,12 @@
   </si>
   <si>
     <t>Story-24</t>
+  </si>
+  <si>
+    <t>Adapt to double instance</t>
+  </si>
+  <si>
+    <t>Animation scene2 encryption</t>
   </si>
 </sst>
 </file>
@@ -536,14 +542,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -611,10 +617,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Burndown!$A$7:$A$52</c:f>
+              <c:f>Burndown!$A$7:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>mmm\ d", "yyyy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>43857</c:v>
                 </c:pt>
@@ -671,16 +677,28 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44109</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44123</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44137</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Burndown!$J$7:$J$52</c:f>
+              <c:f>Burndown!$J$7:$J$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0" formatCode="0.0">
                   <c:v>39</c:v>
                 </c:pt>
@@ -706,36 +724,48 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.720588235294116</c:v>
+                  <c:v>29.720588235294116</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.441176470588232</c:v>
+                  <c:v>22.441176470588232</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.16176470588235</c:v>
+                  <c:v>15.16176470588235</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.8823529411764675</c:v>
+                  <c:v>20.882352941176464</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>20.882352941176464</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.882352941176464</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.882352941176464</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.882352941176464</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.242647058823522</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.9632352941176396</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.6838235294117574</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1260,10 +1290,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,12 +1302,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1309,19 +1339,19 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1376,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="7">
-        <f t="shared" ref="H7:H25" si="0">G7+D7</f>
+        <f t="shared" ref="H7:H29" si="0">G7+D7</f>
         <v>0</v>
       </c>
       <c r="I7" s="7">
@@ -1420,7 +1450,7 @@
         <v>10</v>
       </c>
       <c r="I8" s="7">
-        <f t="shared" ref="I8:I25" si="1">I7+E7</f>
+        <f t="shared" ref="I8:I24" si="1">I7+E7</f>
         <v>0</v>
       </c>
       <c r="J8" s="7">
@@ -1434,7 +1464,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <f t="shared" ref="A9:A25" si="2">A8+14</f>
+        <f t="shared" ref="A9:A29" si="2">A8+14</f>
         <v>43885</v>
       </c>
       <c r="B9" s="6">
@@ -1444,11 +1474,11 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="7">
-        <f t="shared" ref="F9:F25" si="3">J8+C9</f>
+        <f t="shared" ref="F9:F24" si="3">J8+C9</f>
         <v>29</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" ref="G9:G25" si="4">H8</f>
+        <f t="shared" ref="G9:G24" si="4">H8</f>
         <v>10</v>
       </c>
       <c r="H9" s="7">
@@ -1542,11 +1572,11 @@
         <v>70</v>
       </c>
       <c r="J11" s="7">
-        <f t="shared" ref="J11:J25" si="5">MAX(IF(OR(ISBLANK(D11),ISBLANK(E11)),F11-K10*B11,F11-D11),0)</f>
+        <f t="shared" ref="J11:J24" si="5">MAX(IF(OR(ISBLANK(D11),ISBLANK(E11)),F11-K10*B11,F11-D11),0)</f>
         <v>17</v>
       </c>
       <c r="K11" s="9">
-        <f t="shared" ref="K11:K25" si="6">IF(OR(ISBLANK(D11),ISBLANK(E11)),K10,H11/(I11+E11))</f>
+        <f t="shared" ref="K11:K24" si="6">IF(OR(ISBLANK(D11),ISBLANK(E11)),K10,H11/(I11+E11))</f>
         <v>0.2</v>
       </c>
     </row>
@@ -1678,12 +1708,14 @@
       <c r="B15" s="6">
         <v>30</v>
       </c>
-      <c r="C15" s="6"/>
+      <c r="C15" s="6">
+        <v>3</v>
+      </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="7">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="4"/>
@@ -1699,7 +1731,7 @@
       </c>
       <c r="J15" s="7">
         <f t="shared" si="5"/>
-        <v>26.720588235294116</v>
+        <v>29.720588235294116</v>
       </c>
       <c r="K15" s="9">
         <f t="shared" si="6"/>
@@ -1719,7 +1751,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="7">
         <f t="shared" si="3"/>
-        <v>26.720588235294116</v>
+        <v>29.720588235294116</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="4"/>
@@ -1735,7 +1767,7 @@
       </c>
       <c r="J16" s="7">
         <f t="shared" si="5"/>
-        <v>19.441176470588232</v>
+        <v>22.441176470588232</v>
       </c>
       <c r="K16" s="9">
         <f t="shared" si="6"/>
@@ -1755,7 +1787,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="7">
         <f t="shared" si="3"/>
-        <v>19.441176470588232</v>
+        <v>22.441176470588232</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="4"/>
@@ -1771,7 +1803,7 @@
       </c>
       <c r="J17" s="7">
         <f t="shared" si="5"/>
-        <v>12.16176470588235</v>
+        <v>15.16176470588235</v>
       </c>
       <c r="K17" s="9">
         <f t="shared" si="6"/>
@@ -1786,12 +1818,14 @@
       <c r="B18" s="6">
         <v>30</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="6">
+        <v>13</v>
+      </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="7">
         <f t="shared" si="3"/>
-        <v>12.16176470588235</v>
+        <v>28.161764705882348</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="4"/>
@@ -1807,7 +1841,7 @@
       </c>
       <c r="J18" s="7">
         <f t="shared" si="5"/>
-        <v>4.8823529411764675</v>
+        <v>20.882352941176464</v>
       </c>
       <c r="K18" s="9">
         <f t="shared" si="6"/>
@@ -1820,14 +1854,14 @@
         <v>44025</v>
       </c>
       <c r="B19" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="7">
         <f t="shared" si="3"/>
-        <v>4.8823529411764675</v>
+        <v>20.882352941176464</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="4"/>
@@ -1843,7 +1877,7 @@
       </c>
       <c r="J19" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>20.882352941176464</v>
       </c>
       <c r="K19" s="9">
         <f t="shared" si="6"/>
@@ -1856,14 +1890,14 @@
         <v>44039</v>
       </c>
       <c r="B20" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>20.882352941176464</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="4"/>
@@ -1879,7 +1913,7 @@
       </c>
       <c r="J20" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>20.882352941176464</v>
       </c>
       <c r="K20" s="9">
         <f t="shared" si="6"/>
@@ -1892,14 +1926,14 @@
         <v>44053</v>
       </c>
       <c r="B21" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>20.882352941176464</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="4"/>
@@ -1915,7 +1949,7 @@
       </c>
       <c r="J21" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>20.882352941176464</v>
       </c>
       <c r="K21" s="9">
         <f t="shared" si="6"/>
@@ -1928,14 +1962,14 @@
         <v>44067</v>
       </c>
       <c r="B22" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>20.882352941176464</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="4"/>
@@ -1951,7 +1985,7 @@
       </c>
       <c r="J22" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>20.882352941176464</v>
       </c>
       <c r="K22" s="9">
         <f t="shared" si="6"/>
@@ -1964,14 +1998,14 @@
         <v>44081</v>
       </c>
       <c r="B23" s="6">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>20.882352941176464</v>
       </c>
       <c r="G23" s="7">
         <f t="shared" si="4"/>
@@ -1987,7 +2021,7 @@
       </c>
       <c r="J23" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>17.242647058823522</v>
       </c>
       <c r="K23" s="9">
         <f t="shared" si="6"/>
@@ -2007,7 +2041,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>17.242647058823522</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="4"/>
@@ -2023,7 +2057,7 @@
       </c>
       <c r="J24" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.9632352941176396</v>
       </c>
       <c r="K24" s="9">
         <f t="shared" si="6"/>
@@ -2032,7 +2066,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <f t="shared" si="2"/>
+        <f>A24+14</f>
         <v>44109</v>
       </c>
       <c r="B25" s="6">
@@ -2042,11 +2076,11 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>J24+C25</f>
+        <v>9.9632352941176396</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" si="4"/>
+        <f>H24</f>
         <v>33</v>
       </c>
       <c r="H25" s="7">
@@ -2054,39 +2088,183 @@
         <v>33</v>
       </c>
       <c r="I25" s="7">
-        <f t="shared" si="1"/>
+        <f>I24+E24</f>
         <v>136</v>
       </c>
       <c r="J25" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>MAX(IF(OR(ISBLANK(D25),ISBLANK(E25)),F25-K24*B25,F25-D25),0)</f>
+        <v>2.6838235294117574</v>
       </c>
       <c r="K25" s="9">
-        <f t="shared" si="6"/>
+        <f>IF(OR(ISBLANK(D25),ISBLANK(E25)),K24,H25/(I25+E25))</f>
         <v>0.24264705882352941</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11">
-        <f ca="1">SUM(B7:B31)</f>
+      <c r="A26" s="5">
+        <f t="shared" si="2"/>
+        <v>44123</v>
+      </c>
+      <c r="B26" s="6">
+        <v>30</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7">
+        <f t="shared" ref="F26:F29" si="7">J25+C26</f>
+        <v>2.6838235294117574</v>
+      </c>
+      <c r="G26" s="7">
+        <f t="shared" ref="G26:G29" si="8">H25</f>
+        <v>33</v>
+      </c>
+      <c r="H26" s="7">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="I26" s="7">
+        <f t="shared" ref="I26:I29" si="9">I25+E25</f>
+        <v>136</v>
+      </c>
+      <c r="J26" s="7">
+        <f t="shared" ref="J26:J29" si="10">MAX(IF(OR(ISBLANK(D26),ISBLANK(E26)),F26-K25*B26,F26-D26),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="9">
+        <f t="shared" ref="K26:K29" si="11">IF(OR(ISBLANK(D26),ISBLANK(E26)),K25,H26/(I26+E26))</f>
+        <v>0.24264705882352941</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <f t="shared" si="2"/>
+        <v>44137</v>
+      </c>
+      <c r="B27" s="6">
+        <v>30</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="7">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="H27" s="7">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="I27" s="7">
+        <f t="shared" si="9"/>
+        <v>136</v>
+      </c>
+      <c r="J27" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="9">
+        <f t="shared" si="11"/>
+        <v>0.24264705882352941</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <f t="shared" si="2"/>
+        <v>44151</v>
+      </c>
+      <c r="B28" s="6">
+        <v>30</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="H28" s="7">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="I28" s="7">
+        <f t="shared" si="9"/>
+        <v>136</v>
+      </c>
+      <c r="J28" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="9">
+        <f t="shared" si="11"/>
+        <v>0.24264705882352941</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <f t="shared" si="2"/>
+        <v>44165</v>
+      </c>
+      <c r="B29" s="6">
+        <v>30</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="7">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="I29" s="7">
+        <f t="shared" si="9"/>
+        <v>136</v>
+      </c>
+      <c r="J29" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="9">
+        <f t="shared" si="11"/>
+        <v>0.24264705882352941</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11">
+        <f ca="1">SUM(B7:B35)</f>
         <v>230</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11">
-        <f ca="1">AVERAGE(D7:D52)</f>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11">
+        <f ca="1">AVERAGE(D7:D56)</f>
         <v>4</v>
       </c>
-      <c r="E26" s="11">
-        <f ca="1">AVERAGE(E7:E52)</f>
+      <c r="E30" s="11">
+        <f ca="1">AVERAGE(E7:E56)</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="12"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2102,7 +2280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
@@ -2875,10 +3053,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2889,7 +3067,7 @@
     <col min="6" max="6" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>38</v>
       </c>
@@ -2902,7 +3080,7 @@
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
     </row>
-    <row r="2" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -2917,7 +3095,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -2931,11 +3109,8 @@
       <c r="E3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -2950,7 +3125,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -2965,7 +3140,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -2983,7 +3158,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -3001,7 +3176,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -3016,7 +3191,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -3031,7 +3206,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -3049,7 +3224,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -3065,7 +3240,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>11</v>
       </c>
@@ -3081,7 +3256,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -3094,7 +3269,7 @@
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>13</v>
       </c>
@@ -3107,7 +3282,7 @@
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>14</v>
       </c>
@@ -3120,7 +3295,7 @@
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21">
         <v>15</v>
       </c>
@@ -3176,7 +3351,7 @@
       <c r="C19" s="26">
         <v>1</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="30" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="19" t="s">
@@ -3317,6 +3492,28 @@
       </c>
       <c r="C30" s="26">
         <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="24">
+        <v>30</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="26">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="24">
+        <v>31</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="26">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectManagment.xlsx
+++ b/ProjectManagment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\4AHIF\SYP\DeepSpaceProject - Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2559CC24-DB8B-4A60-BC5C-E9F25B96DB25}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE34C84E-C0C3-4418-9490-34DB11489C5D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="2745" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="89">
   <si>
     <t>Initial</t>
   </si>
@@ -3055,8 +3055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3295,7 +3295,7 @@
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21">
         <v>15</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>16</v>
       </c>
@@ -3438,6 +3438,9 @@
       <c r="C25" s="26">
         <v>2</v>
       </c>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
@@ -3459,6 +3462,9 @@
       </c>
       <c r="C27" s="26">
         <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">

--- a/ProjectManagment.xlsx
+++ b/ProjectManagment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\AEC\AECProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\4AHIF\SYP\DeepSpaceProject - Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30ACB4B-C73B-47ED-ADE2-17548D90195A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A06387-BC16-4F7B-9894-25E373A36C72}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="780" windowWidth="10110" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="87">
   <si>
     <t>Initial</t>
   </si>
@@ -282,19 +282,19 @@
     <t>13 SP sind aufgeteilt worden</t>
   </si>
   <si>
-    <t>15.0.5.2020</t>
-  </si>
-  <si>
     <t>Story-23</t>
   </si>
   <si>
     <t>Story-11</t>
   </si>
   <si>
-    <t>18.0.5.2020</t>
-  </si>
-  <si>
     <t>Story-24</t>
+  </si>
+  <si>
+    <t>Adapt to double instance</t>
+  </si>
+  <si>
+    <t>Animation scene2 encryption</t>
   </si>
 </sst>
 </file>
@@ -536,14 +536,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -706,22 +706,22 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.720588235294116</c:v>
+                  <c:v>29.720588235294116</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.441176470588232</c:v>
+                  <c:v>22.441176470588232</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.16176470588235</c:v>
+                  <c:v>15.16176470588235</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.8823529411764675</c:v>
+                  <c:v>20.882352941176464</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>13.602941176470582</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>6.3235294117646994</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -1262,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,12 +1272,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1309,19 +1309,19 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1678,12 +1678,14 @@
       <c r="B15" s="6">
         <v>30</v>
       </c>
-      <c r="C15" s="6"/>
+      <c r="C15" s="6">
+        <v>3</v>
+      </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="7">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="4"/>
@@ -1699,7 +1701,7 @@
       </c>
       <c r="J15" s="7">
         <f t="shared" si="5"/>
-        <v>26.720588235294116</v>
+        <v>29.720588235294116</v>
       </c>
       <c r="K15" s="9">
         <f t="shared" si="6"/>
@@ -1719,7 +1721,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="7">
         <f t="shared" si="3"/>
-        <v>26.720588235294116</v>
+        <v>29.720588235294116</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="4"/>
@@ -1735,7 +1737,7 @@
       </c>
       <c r="J16" s="7">
         <f t="shared" si="5"/>
-        <v>19.441176470588232</v>
+        <v>22.441176470588232</v>
       </c>
       <c r="K16" s="9">
         <f t="shared" si="6"/>
@@ -1755,7 +1757,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="7">
         <f t="shared" si="3"/>
-        <v>19.441176470588232</v>
+        <v>22.441176470588232</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="4"/>
@@ -1771,7 +1773,7 @@
       </c>
       <c r="J17" s="7">
         <f t="shared" si="5"/>
-        <v>12.16176470588235</v>
+        <v>15.16176470588235</v>
       </c>
       <c r="K17" s="9">
         <f t="shared" si="6"/>
@@ -1786,12 +1788,14 @@
       <c r="B18" s="6">
         <v>30</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="6">
+        <v>13</v>
+      </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="7">
         <f t="shared" si="3"/>
-        <v>12.16176470588235</v>
+        <v>28.161764705882348</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="4"/>
@@ -1807,7 +1811,7 @@
       </c>
       <c r="J18" s="7">
         <f t="shared" si="5"/>
-        <v>4.8823529411764675</v>
+        <v>20.882352941176464</v>
       </c>
       <c r="K18" s="9">
         <f t="shared" si="6"/>
@@ -1827,7 +1831,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="7">
         <f t="shared" si="3"/>
-        <v>4.8823529411764675</v>
+        <v>20.882352941176464</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="4"/>
@@ -1843,7 +1847,7 @@
       </c>
       <c r="J19" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>13.602941176470582</v>
       </c>
       <c r="K19" s="9">
         <f t="shared" si="6"/>
@@ -1863,7 +1867,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>13.602941176470582</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="4"/>
@@ -1879,7 +1883,7 @@
       </c>
       <c r="J20" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6.3235294117646994</v>
       </c>
       <c r="K20" s="9">
         <f t="shared" si="6"/>
@@ -1899,7 +1903,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.3235294117646994</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="4"/>
@@ -2102,8 +2106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2739,13 +2743,13 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>82</v>
+      <c r="A44" s="27">
+        <v>43966</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -2765,7 +2769,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -2804,13 +2808,13 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>85</v>
+      <c r="A49" s="27">
+        <v>43969</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -2830,7 +2834,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -2875,10 +2879,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3176,7 +3180,7 @@
       <c r="C19" s="26">
         <v>1</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="30" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="19" t="s">
@@ -3263,6 +3267,9 @@
       <c r="C25" s="26">
         <v>2</v>
       </c>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
@@ -3285,6 +3292,9 @@
       <c r="C27" s="26">
         <v>2</v>
       </c>
+      <c r="E27" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
@@ -3317,6 +3327,28 @@
       </c>
       <c r="C30" s="26">
         <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="24">
+        <v>30</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="26">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="24">
+        <v>31</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="26">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectManagment.xlsx
+++ b/ProjectManagment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\4AHIF\SYP\DeepSpaceProject - Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\AEC\AECProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A06387-BC16-4F7B-9894-25E373A36C72}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCA6BD2-6E43-4630-A1EF-A6C7D5A8BDE3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="780" windowWidth="10110" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="87">
   <si>
     <t>Initial</t>
   </si>
@@ -706,25 +706,25 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.720588235294116</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.441176470588232</c:v>
+                  <c:v>23.6875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.16176470588235</c:v>
+                  <c:v>16.375</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.882352941176464</c:v>
+                  <c:v>22.0625</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.602941176470582</c:v>
+                  <c:v>14.75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.3235294117646994</c:v>
+                  <c:v>7.4375</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -1262,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1681,8 +1681,12 @@
       <c r="C15" s="6">
         <v>3</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="6">
+        <v>6</v>
+      </c>
+      <c r="E15" s="6">
+        <v>24</v>
+      </c>
       <c r="F15" s="7">
         <f t="shared" si="3"/>
         <v>37</v>
@@ -1693,7 +1697,7 @@
       </c>
       <c r="H15" s="7">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I15" s="7">
         <f t="shared" si="1"/>
@@ -1701,11 +1705,11 @@
       </c>
       <c r="J15" s="7">
         <f t="shared" si="5"/>
-        <v>29.720588235294116</v>
+        <v>31</v>
       </c>
       <c r="K15" s="9">
         <f t="shared" si="6"/>
-        <v>0.24264705882352941</v>
+        <v>0.24374999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1721,27 +1725,27 @@
       <c r="E16" s="6"/>
       <c r="F16" s="7">
         <f t="shared" si="3"/>
-        <v>29.720588235294116</v>
+        <v>31</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="4"/>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H16" s="7">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I16" s="7">
         <f t="shared" si="1"/>
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="J16" s="7">
         <f t="shared" si="5"/>
-        <v>22.441176470588232</v>
+        <v>23.6875</v>
       </c>
       <c r="K16" s="9">
         <f t="shared" si="6"/>
-        <v>0.24264705882352941</v>
+        <v>0.24374999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1757,27 +1761,27 @@
       <c r="E17" s="6"/>
       <c r="F17" s="7">
         <f t="shared" si="3"/>
-        <v>22.441176470588232</v>
+        <v>23.6875</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="4"/>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H17" s="7">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I17" s="7">
         <f t="shared" si="1"/>
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="J17" s="7">
         <f t="shared" si="5"/>
-        <v>15.16176470588235</v>
+        <v>16.375</v>
       </c>
       <c r="K17" s="9">
         <f t="shared" si="6"/>
-        <v>0.24264705882352941</v>
+        <v>0.24374999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1795,27 +1799,27 @@
       <c r="E18" s="6"/>
       <c r="F18" s="7">
         <f t="shared" si="3"/>
-        <v>28.161764705882348</v>
+        <v>29.375</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="4"/>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H18" s="7">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I18" s="7">
         <f t="shared" si="1"/>
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="J18" s="7">
         <f t="shared" si="5"/>
-        <v>20.882352941176464</v>
+        <v>22.0625</v>
       </c>
       <c r="K18" s="9">
         <f t="shared" si="6"/>
-        <v>0.24264705882352941</v>
+        <v>0.24374999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1831,27 +1835,27 @@
       <c r="E19" s="6"/>
       <c r="F19" s="7">
         <f t="shared" si="3"/>
-        <v>20.882352941176464</v>
+        <v>22.0625</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="4"/>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I19" s="7">
         <f t="shared" si="1"/>
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="J19" s="7">
         <f t="shared" si="5"/>
-        <v>13.602941176470582</v>
+        <v>14.75</v>
       </c>
       <c r="K19" s="9">
         <f t="shared" si="6"/>
-        <v>0.24264705882352941</v>
+        <v>0.24374999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1867,27 +1871,27 @@
       <c r="E20" s="6"/>
       <c r="F20" s="7">
         <f t="shared" si="3"/>
-        <v>13.602941176470582</v>
+        <v>14.75</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="4"/>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="1"/>
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="J20" s="7">
         <f t="shared" si="5"/>
-        <v>6.3235294117646994</v>
+        <v>7.4375</v>
       </c>
       <c r="K20" s="9">
         <f t="shared" si="6"/>
-        <v>0.24264705882352941</v>
+        <v>0.24374999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1903,27 +1907,27 @@
       <c r="E21" s="6"/>
       <c r="F21" s="7">
         <f t="shared" si="3"/>
-        <v>6.3235294117646994</v>
+        <v>7.4375</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="4"/>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I21" s="7">
         <f t="shared" si="1"/>
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="J21" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="K21" s="9">
         <f t="shared" si="6"/>
-        <v>0.24264705882352941</v>
+        <v>0.24374999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1939,19 +1943,19 @@
       <c r="E22" s="6"/>
       <c r="F22" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="4"/>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I22" s="7">
         <f t="shared" si="1"/>
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="J22" s="7">
         <f t="shared" si="5"/>
@@ -1959,7 +1963,7 @@
       </c>
       <c r="K22" s="9">
         <f t="shared" si="6"/>
-        <v>0.24264705882352941</v>
+        <v>0.24374999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1979,15 +1983,15 @@
       </c>
       <c r="G23" s="7">
         <f t="shared" si="4"/>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I23" s="7">
         <f t="shared" si="1"/>
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="J23" s="7">
         <f t="shared" si="5"/>
@@ -1995,7 +1999,7 @@
       </c>
       <c r="K23" s="9">
         <f t="shared" si="6"/>
-        <v>0.24264705882352941</v>
+        <v>0.24374999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2015,15 +2019,15 @@
       </c>
       <c r="G24" s="7">
         <f t="shared" si="4"/>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="1"/>
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="J24" s="7">
         <f t="shared" si="5"/>
@@ -2031,7 +2035,7 @@
       </c>
       <c r="K24" s="9">
         <f t="shared" si="6"/>
-        <v>0.24264705882352941</v>
+        <v>0.24374999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2051,15 +2055,15 @@
       </c>
       <c r="G25" s="7">
         <f t="shared" si="4"/>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I25" s="7">
         <f t="shared" si="1"/>
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="J25" s="7">
         <f t="shared" si="5"/>
@@ -2067,7 +2071,7 @@
       </c>
       <c r="K25" s="9">
         <f t="shared" si="6"/>
-        <v>0.24264705882352941</v>
+        <v>0.24374999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2107,7 +2111,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2881,8 +2885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3064,7 +3068,9 @@
         <v>2</v>
       </c>
       <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="E11" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="F11" s="19" t="s">
         <v>54</v>
       </c>

--- a/ProjectManagment.xlsx
+++ b/ProjectManagment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\AEC\AECProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCA6BD2-6E43-4630-A1EF-A6C7D5A8BDE3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC4BC67-8291-43DD-B6CD-C1ADE03D53F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="87">
   <si>
     <t>Initial</t>
   </si>
@@ -672,6 +674,24 @@
                 <c:pt idx="18">
                   <c:v>44109</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>44123</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44137</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44193</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -709,33 +729,51 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.6875</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.375</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.0625</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.75</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.4375</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.125</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34.231578947368419</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26.463157894736838</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18.694736842105257</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.926315789473678</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1578947368420991</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1260,18 +1298,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -1279,7 +1317,7 @@
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
     </row>
-    <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1293,7 +1331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>39</v>
       </c>
@@ -1308,7 +1346,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>5</v>
       </c>
@@ -1323,7 +1361,7 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1358,13 +1396,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43857</v>
       </c>
-      <c r="B7" s="6">
-        <v>30</v>
-      </c>
+      <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -1392,7 +1428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <f>A7+14</f>
         <v>43871</v>
@@ -1432,9 +1468,9 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
-        <f t="shared" ref="A9:A25" si="2">A8+14</f>
+        <f t="shared" ref="A9:A31" si="2">A8+14</f>
         <v>43885</v>
       </c>
       <c r="B9" s="6">
@@ -1468,7 +1504,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <f t="shared" si="2"/>
         <v>43899</v>
@@ -1508,7 +1544,7 @@
         <v>0.22857142857142856</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <f t="shared" si="2"/>
         <v>43913</v>
@@ -1550,7 +1586,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <f t="shared" si="2"/>
         <v>43927</v>
@@ -1586,7 +1622,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <f t="shared" si="2"/>
         <v>43941</v>
@@ -1628,7 +1664,7 @@
         <v>0.1864406779661017</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <f t="shared" si="2"/>
         <v>43955</v>
@@ -1670,7 +1706,7 @@
         <v>0.24264705882352941</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <f t="shared" si="2"/>
         <v>43969</v>
@@ -1712,13 +1748,13 @@
         <v>0.24374999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <f t="shared" si="2"/>
         <v>43983</v>
       </c>
       <c r="B16" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -1740,28 +1776,28 @@
         <v>160</v>
       </c>
       <c r="J16" s="7">
-        <f t="shared" si="5"/>
-        <v>23.6875</v>
+        <f>MAX(IF(OR(ISBLANK(D16),ISBLANK(E16)),F16-K15*B16,F16-D16),0)</f>
+        <v>31</v>
       </c>
       <c r="K16" s="9">
         <f t="shared" si="6"/>
         <v>0.24374999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <f t="shared" si="2"/>
         <v>43997</v>
       </c>
       <c r="B17" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="7">
         <f t="shared" si="3"/>
-        <v>23.6875</v>
+        <v>31</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="4"/>
@@ -1777,14 +1813,14 @@
       </c>
       <c r="J17" s="7">
         <f t="shared" si="5"/>
-        <v>16.375</v>
+        <v>31</v>
       </c>
       <c r="K17" s="9">
         <f t="shared" si="6"/>
         <v>0.24374999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <f t="shared" si="2"/>
         <v>44011</v>
@@ -1795,11 +1831,15 @@
       <c r="C18" s="6">
         <v>13</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="D18" s="6">
+        <v>2</v>
+      </c>
+      <c r="E18" s="6">
+        <v>30</v>
+      </c>
       <c r="F18" s="7">
         <f t="shared" si="3"/>
-        <v>29.375</v>
+        <v>44</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="4"/>
@@ -1807,7 +1847,7 @@
       </c>
       <c r="H18" s="7">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I18" s="7">
         <f t="shared" si="1"/>
@@ -1815,286 +1855,502 @@
       </c>
       <c r="J18" s="7">
         <f t="shared" si="5"/>
-        <v>22.0625</v>
+        <v>42</v>
       </c>
       <c r="K18" s="9">
         <f t="shared" si="6"/>
-        <v>0.24374999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.21578947368421053</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <f t="shared" si="2"/>
         <v>44025</v>
       </c>
       <c r="B19" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="7">
         <f t="shared" si="3"/>
-        <v>22.0625</v>
+        <v>42</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="4"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I19" s="7">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="J19" s="7">
         <f t="shared" si="5"/>
-        <v>14.75</v>
+        <v>42</v>
       </c>
       <c r="K19" s="9">
         <f t="shared" si="6"/>
-        <v>0.24374999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.21578947368421053</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <f t="shared" si="2"/>
         <v>44039</v>
       </c>
       <c r="B20" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="7">
         <f t="shared" si="3"/>
-        <v>14.75</v>
+        <v>42</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="4"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="J20" s="7">
         <f t="shared" si="5"/>
-        <v>7.4375</v>
+        <v>42</v>
       </c>
       <c r="K20" s="9">
         <f t="shared" si="6"/>
-        <v>0.24374999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.21578947368421053</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <f t="shared" si="2"/>
         <v>44053</v>
       </c>
       <c r="B21" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="7">
         <f t="shared" si="3"/>
-        <v>7.4375</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="4"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I21" s="7">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="J21" s="7">
         <f t="shared" si="5"/>
-        <v>0.125</v>
+        <v>42</v>
       </c>
       <c r="K21" s="9">
         <f t="shared" si="6"/>
-        <v>0.24374999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.21578947368421053</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <f t="shared" si="2"/>
         <v>44067</v>
       </c>
       <c r="B22" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="7">
         <f t="shared" si="3"/>
-        <v>0.125</v>
+        <v>42</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="4"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I22" s="7">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="J22" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="K22" s="9">
         <f t="shared" si="6"/>
-        <v>0.24374999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.21578947368421053</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <f t="shared" si="2"/>
         <v>44081</v>
       </c>
       <c r="B23" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G23" s="7">
         <f t="shared" si="4"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I23" s="7">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="J23" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="K23" s="9">
         <f t="shared" si="6"/>
-        <v>0.24374999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.21578947368421053</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <f t="shared" si="2"/>
         <v>44095</v>
       </c>
       <c r="B24" s="6">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="4"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="J24" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>34.231578947368419</v>
       </c>
       <c r="K24" s="9">
         <f t="shared" si="6"/>
-        <v>0.24374999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.21578947368421053</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <f t="shared" si="2"/>
         <v>44109</v>
       </c>
       <c r="B25" s="6">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>34.231578947368419</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="4"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I25" s="7">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="J25" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>26.463157894736838</v>
       </c>
       <c r="K25" s="9">
         <f t="shared" si="6"/>
-        <v>0.24374999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11">
-        <f ca="1">SUM(B7:B31)</f>
-        <v>230</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11">
+        <v>0.21578947368421053</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <f t="shared" si="2"/>
+        <v>44123</v>
+      </c>
+      <c r="B26" s="6">
+        <v>36</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7">
+        <f t="shared" ref="F26:F31" si="7">J25+C26</f>
+        <v>26.463157894736838</v>
+      </c>
+      <c r="G26" s="7">
+        <f t="shared" ref="G26:G31" si="8">H25</f>
+        <v>41</v>
+      </c>
+      <c r="H26" s="7">
+        <f t="shared" ref="H26:H31" si="9">G26+D26</f>
+        <v>41</v>
+      </c>
+      <c r="I26" s="7">
+        <f t="shared" ref="I26:I31" si="10">I25+E25</f>
+        <v>190</v>
+      </c>
+      <c r="J26" s="7">
+        <f t="shared" ref="J26:J31" si="11">MAX(IF(OR(ISBLANK(D26),ISBLANK(E26)),F26-K25*B26,F26-D26),0)</f>
+        <v>18.694736842105257</v>
+      </c>
+      <c r="K26" s="9">
+        <f t="shared" ref="K26:K31" si="12">IF(OR(ISBLANK(D26),ISBLANK(E26)),K25,H26/(I26+E26))</f>
+        <v>0.21578947368421053</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <f t="shared" si="2"/>
+        <v>44137</v>
+      </c>
+      <c r="B27" s="6">
+        <v>36</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7">
+        <f t="shared" si="7"/>
+        <v>18.694736842105257</v>
+      </c>
+      <c r="G27" s="7">
+        <f t="shared" si="8"/>
+        <v>41</v>
+      </c>
+      <c r="H27" s="7">
+        <f t="shared" si="9"/>
+        <v>41</v>
+      </c>
+      <c r="I27" s="7">
+        <f t="shared" si="10"/>
+        <v>190</v>
+      </c>
+      <c r="J27" s="7">
+        <f t="shared" si="11"/>
+        <v>10.926315789473678</v>
+      </c>
+      <c r="K27" s="9">
+        <f t="shared" si="12"/>
+        <v>0.21578947368421053</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <f t="shared" si="2"/>
+        <v>44151</v>
+      </c>
+      <c r="B28" s="6">
+        <v>36</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="7">
+        <f t="shared" si="7"/>
+        <v>10.926315789473678</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="8"/>
+        <v>41</v>
+      </c>
+      <c r="H28" s="7">
+        <f t="shared" si="9"/>
+        <v>41</v>
+      </c>
+      <c r="I28" s="7">
+        <f t="shared" si="10"/>
+        <v>190</v>
+      </c>
+      <c r="J28" s="7">
+        <f t="shared" si="11"/>
+        <v>3.1578947368420991</v>
+      </c>
+      <c r="K28" s="9">
+        <f t="shared" si="12"/>
+        <v>0.21578947368421053</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <f t="shared" si="2"/>
+        <v>44165</v>
+      </c>
+      <c r="B29" s="6">
+        <v>36</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7">
+        <f t="shared" si="7"/>
+        <v>3.1578947368420991</v>
+      </c>
+      <c r="G29" s="7">
+        <f t="shared" si="8"/>
+        <v>41</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" si="9"/>
+        <v>41</v>
+      </c>
+      <c r="I29" s="7">
+        <f t="shared" si="10"/>
+        <v>190</v>
+      </c>
+      <c r="J29" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="9">
+        <f t="shared" si="12"/>
+        <v>0.21578947368421053</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <f t="shared" si="2"/>
+        <v>44179</v>
+      </c>
+      <c r="B30" s="6">
+        <v>36</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="7">
+        <f t="shared" si="8"/>
+        <v>41</v>
+      </c>
+      <c r="H30" s="7">
+        <f t="shared" si="9"/>
+        <v>41</v>
+      </c>
+      <c r="I30" s="7">
+        <f t="shared" si="10"/>
+        <v>190</v>
+      </c>
+      <c r="J30" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="9">
+        <f t="shared" si="12"/>
+        <v>0.21578947368421053</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <f t="shared" si="2"/>
+        <v>44193</v>
+      </c>
+      <c r="B31" s="6">
+        <v>36</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="7">
+        <f t="shared" si="8"/>
+        <v>41</v>
+      </c>
+      <c r="H31" s="7">
+        <f t="shared" si="9"/>
+        <v>41</v>
+      </c>
+      <c r="I31" s="7">
+        <f t="shared" si="10"/>
+        <v>190</v>
+      </c>
+      <c r="J31" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="9">
+        <f t="shared" si="12"/>
+        <v>0.21578947368421053</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11">
+        <f>SUM(B7:B31)</f>
+        <v>558</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11">
         <f ca="1">AVERAGE(D7:D52)</f>
         <v>4</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E32" s="11">
         <f ca="1">AVERAGE(E7:E52)</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="12"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2110,13 +2366,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
@@ -2136,7 +2392,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2156,7 +2412,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -2176,7 +2432,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -2196,7 +2452,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -2216,7 +2472,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -2236,7 +2492,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -2256,7 +2512,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -2276,7 +2532,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -2296,7 +2552,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -2316,7 +2572,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -2336,7 +2592,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -2356,7 +2612,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2376,7 +2632,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -2396,7 +2652,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -2416,7 +2672,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -2436,7 +2692,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -2456,7 +2712,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2476,7 +2732,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -2496,7 +2752,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -2516,7 +2772,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -2536,7 +2792,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -2556,7 +2812,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -2576,7 +2832,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -2596,12 +2852,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="27">
         <v>43959</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2621,7 +2877,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2641,7 +2897,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -2661,7 +2917,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -2681,12 +2937,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="27">
         <v>43962</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>72</v>
       </c>
@@ -2706,7 +2962,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -2726,7 +2982,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>29</v>
       </c>
@@ -2746,12 +3002,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="27">
         <v>43966</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>83</v>
       </c>
@@ -2771,7 +3027,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>82</v>
       </c>
@@ -2791,7 +3047,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>29</v>
       </c>
@@ -2811,12 +3067,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="27">
         <v>43969</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>83</v>
       </c>
@@ -2836,7 +3092,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>84</v>
       </c>
@@ -2856,7 +3112,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>29</v>
       </c>
@@ -2885,19 +3141,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
     <col min="6" max="6" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>38</v>
       </c>
@@ -2910,7 +3166,7 @@
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
     </row>
-    <row r="2" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -2925,7 +3181,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -2943,7 +3199,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -2958,7 +3214,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -2973,7 +3229,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -2991,7 +3247,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -3009,7 +3265,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -3024,7 +3280,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -3039,7 +3295,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -3057,7 +3313,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -3075,7 +3331,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16">
         <v>11</v>
       </c>
@@ -3091,7 +3347,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -3104,7 +3360,7 @@
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="16">
         <v>13</v>
       </c>
@@ -3117,7 +3373,7 @@
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16">
         <v>14</v>
       </c>
@@ -3130,7 +3386,7 @@
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="21">
         <v>15</v>
       </c>
@@ -3145,7 +3401,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>16</v>
       </c>
@@ -3159,7 +3415,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>17</v>
       </c>
@@ -3176,7 +3432,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <v>18</v>
       </c>
@@ -3193,7 +3449,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="24">
         <v>19</v>
       </c>
@@ -3207,7 +3463,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <v>20</v>
       </c>
@@ -3221,7 +3477,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <v>21</v>
       </c>
@@ -3235,7 +3491,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="24">
         <v>22</v>
       </c>
@@ -3249,7 +3505,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <v>23</v>
       </c>
@@ -3263,7 +3519,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A25" s="24">
         <v>24</v>
       </c>
@@ -3277,7 +3533,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A26" s="24">
         <v>25</v>
       </c>
@@ -3287,8 +3543,11 @@
       <c r="C26" s="26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <v>26</v>
       </c>
@@ -3302,7 +3561,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
         <v>27</v>
       </c>
@@ -3313,7 +3572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <v>28</v>
       </c>
@@ -3324,7 +3583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A30" s="24">
         <v>29</v>
       </c>
@@ -3335,7 +3594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A31" s="24">
         <v>30</v>
       </c>
@@ -3346,7 +3605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A32" s="24">
         <v>31</v>
       </c>

--- a/ProjectManagment.xlsx
+++ b/ProjectManagment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\AEC\AECProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\4AHIF\SYP\AEC-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC4BC67-8291-43DD-B6CD-C1ADE03D53F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093D0224-FBA8-4E1B-A4F7-EF67CDFF0BF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="87">
   <si>
     <t>Initial</t>
   </si>
@@ -1300,16 +1300,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -1317,7 +1317,7 @@
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
     </row>
-    <row r="2" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>39</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>5</v>
       </c>
@@ -1361,7 +1361,7 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>43857</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f>A7+14</f>
         <v>43871</v>
@@ -1468,7 +1468,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f t="shared" ref="A9:A31" si="2">A8+14</f>
         <v>43885</v>
@@ -1504,7 +1504,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f t="shared" si="2"/>
         <v>43899</v>
@@ -1544,7 +1544,7 @@
         <v>0.22857142857142856</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f t="shared" si="2"/>
         <v>43913</v>
@@ -1586,7 +1586,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f t="shared" si="2"/>
         <v>43927</v>
@@ -1622,7 +1622,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" si="2"/>
         <v>43941</v>
@@ -1664,7 +1664,7 @@
         <v>0.1864406779661017</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="2"/>
         <v>43955</v>
@@ -1706,7 +1706,7 @@
         <v>0.24264705882352941</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="2"/>
         <v>43969</v>
@@ -1748,7 +1748,7 @@
         <v>0.24374999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="2"/>
         <v>43983</v>
@@ -1784,7 +1784,7 @@
         <v>0.24374999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f t="shared" si="2"/>
         <v>43997</v>
@@ -1820,7 +1820,7 @@
         <v>0.24374999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f t="shared" si="2"/>
         <v>44011</v>
@@ -1862,7 +1862,7 @@
         <v>0.21578947368421053</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f t="shared" si="2"/>
         <v>44025</v>
@@ -1898,7 +1898,7 @@
         <v>0.21578947368421053</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f t="shared" si="2"/>
         <v>44039</v>
@@ -1934,7 +1934,7 @@
         <v>0.21578947368421053</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f t="shared" si="2"/>
         <v>44053</v>
@@ -1970,7 +1970,7 @@
         <v>0.21578947368421053</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f t="shared" si="2"/>
         <v>44067</v>
@@ -2006,7 +2006,7 @@
         <v>0.21578947368421053</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f t="shared" si="2"/>
         <v>44081</v>
@@ -2015,7 +2015,9 @@
         <v>0</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="D23" s="6">
+        <v>2</v>
+      </c>
       <c r="E23" s="6"/>
       <c r="F23" s="7">
         <f t="shared" si="3"/>
@@ -2027,7 +2029,7 @@
       </c>
       <c r="H23" s="7">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I23" s="7">
         <f t="shared" si="1"/>
@@ -2042,7 +2044,7 @@
         <v>0.21578947368421053</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f t="shared" si="2"/>
         <v>44095</v>
@@ -2059,11 +2061,11 @@
       </c>
       <c r="G24" s="7">
         <f t="shared" si="4"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="1"/>
@@ -2078,7 +2080,7 @@
         <v>0.21578947368421053</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <f t="shared" si="2"/>
         <v>44109</v>
@@ -2095,11 +2097,11 @@
       </c>
       <c r="G25" s="7">
         <f t="shared" si="4"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I25" s="7">
         <f t="shared" si="1"/>
@@ -2114,7 +2116,7 @@
         <v>0.21578947368421053</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f t="shared" si="2"/>
         <v>44123</v>
@@ -2131,11 +2133,11 @@
       </c>
       <c r="G26" s="7">
         <f t="shared" ref="G26:G31" si="8">H25</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" ref="H26:H31" si="9">G26+D26</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I26" s="7">
         <f t="shared" ref="I26:I31" si="10">I25+E25</f>
@@ -2150,7 +2152,7 @@
         <v>0.21578947368421053</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f t="shared" si="2"/>
         <v>44137</v>
@@ -2167,11 +2169,11 @@
       </c>
       <c r="G27" s="7">
         <f t="shared" si="8"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H27" s="7">
         <f t="shared" si="9"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I27" s="7">
         <f t="shared" si="10"/>
@@ -2186,7 +2188,7 @@
         <v>0.21578947368421053</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f t="shared" si="2"/>
         <v>44151</v>
@@ -2203,11 +2205,11 @@
       </c>
       <c r="G28" s="7">
         <f t="shared" si="8"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="9"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I28" s="7">
         <f t="shared" si="10"/>
@@ -2222,7 +2224,7 @@
         <v>0.21578947368421053</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <f t="shared" si="2"/>
         <v>44165</v>
@@ -2239,11 +2241,11 @@
       </c>
       <c r="G29" s="7">
         <f t="shared" si="8"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H29" s="7">
         <f t="shared" si="9"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I29" s="7">
         <f t="shared" si="10"/>
@@ -2258,7 +2260,7 @@
         <v>0.21578947368421053</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <f t="shared" si="2"/>
         <v>44179</v>
@@ -2275,11 +2277,11 @@
       </c>
       <c r="G30" s="7">
         <f t="shared" si="8"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H30" s="7">
         <f t="shared" si="9"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I30" s="7">
         <f t="shared" si="10"/>
@@ -2294,7 +2296,7 @@
         <v>0.21578947368421053</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <f t="shared" si="2"/>
         <v>44193</v>
@@ -2311,11 +2313,11 @@
       </c>
       <c r="G31" s="7">
         <f t="shared" si="8"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H31" s="7">
         <f t="shared" si="9"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I31" s="7">
         <f t="shared" si="10"/>
@@ -2330,7 +2332,7 @@
         <v>0.21578947368421053</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="11">
         <f>SUM(B7:B31)</f>
@@ -2370,9 +2372,9 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
@@ -2392,7 +2394,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2412,7 +2414,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -2432,7 +2434,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -2452,7 +2454,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -2472,7 +2474,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -2492,7 +2494,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -2512,7 +2514,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -2532,7 +2534,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -2552,7 +2554,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -2572,7 +2574,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -2592,7 +2594,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -2612,7 +2614,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2632,7 +2634,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -2652,7 +2654,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -2672,7 +2674,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -2692,7 +2694,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -2712,7 +2714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2732,7 +2734,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -2752,7 +2754,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -2772,7 +2774,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -2792,7 +2794,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -2812,7 +2814,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -2832,7 +2834,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -2852,12 +2854,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="27">
         <v>43959</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2877,7 +2879,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2897,7 +2899,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -2917,7 +2919,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -2937,12 +2939,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="27">
         <v>43962</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>72</v>
       </c>
@@ -2962,7 +2964,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -2982,7 +2984,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>29</v>
       </c>
@@ -3002,12 +3004,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="27">
         <v>43966</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>83</v>
       </c>
@@ -3027,7 +3029,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>82</v>
       </c>
@@ -3047,7 +3049,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>29</v>
       </c>
@@ -3067,12 +3069,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="27">
         <v>43969</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>83</v>
       </c>
@@ -3092,7 +3094,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>84</v>
       </c>
@@ -3112,7 +3114,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>29</v>
       </c>
@@ -3141,19 +3143,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
     <col min="6" max="6" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>38</v>
       </c>
@@ -3166,7 +3168,7 @@
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
     </row>
-    <row r="2" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -3181,7 +3183,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -3199,7 +3201,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -3214,7 +3216,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -3229,7 +3231,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -3247,7 +3249,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -3265,7 +3267,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -3280,7 +3282,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -3295,7 +3297,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -3313,7 +3315,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -3331,7 +3333,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>11</v>
       </c>
@@ -3347,7 +3349,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -3360,7 +3362,7 @@
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>13</v>
       </c>
@@ -3373,7 +3375,7 @@
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>14</v>
       </c>
@@ -3386,7 +3388,7 @@
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21">
         <v>15</v>
       </c>
@@ -3401,7 +3403,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>16</v>
       </c>
@@ -3415,7 +3417,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>17</v>
       </c>
@@ -3432,7 +3434,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>18</v>
       </c>
@@ -3449,7 +3451,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>19</v>
       </c>
@@ -3463,7 +3465,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>20</v>
       </c>
@@ -3477,7 +3479,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>21</v>
       </c>
@@ -3491,7 +3493,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>22</v>
       </c>
@@ -3505,7 +3507,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>23</v>
       </c>
@@ -3519,7 +3521,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>24</v>
       </c>
@@ -3533,7 +3535,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>25</v>
       </c>
@@ -3547,7 +3549,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>26</v>
       </c>
@@ -3561,7 +3563,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>27</v>
       </c>
@@ -3571,8 +3573,11 @@
       <c r="C28" s="26">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>28</v>
       </c>
@@ -3583,7 +3588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>29</v>
       </c>
@@ -3594,7 +3599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>30</v>
       </c>
@@ -3605,7 +3610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>31</v>
       </c>

--- a/ProjectManagment.xlsx
+++ b/ProjectManagment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\4AHIF\SYP\AEC-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093D0224-FBA8-4E1B-A4F7-EF67CDFF0BF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CE9A76-BD0D-4190-8D64-659B2374779D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="87">
   <si>
     <t>Initial</t>
   </si>
@@ -1300,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2125,7 +2125,9 @@
         <v>36</v>
       </c>
       <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="D26" s="6">
+        <v>3</v>
+      </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7">
         <f t="shared" ref="F26:F31" si="7">J25+C26</f>
@@ -2137,7 +2139,7 @@
       </c>
       <c r="H26" s="7">
         <f t="shared" ref="H26:H31" si="9">G26+D26</f>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I26" s="7">
         <f t="shared" ref="I26:I31" si="10">I25+E25</f>
@@ -2169,11 +2171,11 @@
       </c>
       <c r="G27" s="7">
         <f t="shared" si="8"/>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H27" s="7">
         <f t="shared" si="9"/>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I27" s="7">
         <f t="shared" si="10"/>
@@ -2205,11 +2207,11 @@
       </c>
       <c r="G28" s="7">
         <f t="shared" si="8"/>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="9"/>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I28" s="7">
         <f t="shared" si="10"/>
@@ -2241,11 +2243,11 @@
       </c>
       <c r="G29" s="7">
         <f t="shared" si="8"/>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H29" s="7">
         <f t="shared" si="9"/>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I29" s="7">
         <f t="shared" si="10"/>
@@ -2277,11 +2279,11 @@
       </c>
       <c r="G30" s="7">
         <f t="shared" si="8"/>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H30" s="7">
         <f t="shared" si="9"/>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I30" s="7">
         <f t="shared" si="10"/>
@@ -2313,11 +2315,11 @@
       </c>
       <c r="G31" s="7">
         <f t="shared" si="8"/>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H31" s="7">
         <f t="shared" si="9"/>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I31" s="7">
         <f t="shared" si="10"/>
@@ -3143,8 +3145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3587,6 +3589,9 @@
       <c r="C29" s="26">
         <v>3</v>
       </c>
+      <c r="E29" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
